--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msaldarriaga\Desktop\Revision\vuelosBaratos\scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msaldarriaga\Desktop\Revision\vuelosBaratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EDC3BF-60F2-4E30-B1F3-CD4C3597229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2761A-4D4E-49E3-80E4-1810F436F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Salida</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,10 +411,136 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45536</v>
+        <v>45478</v>
       </c>
       <c r="D2" s="2">
-        <v>45549</v>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45485</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45492</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45506</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45513</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45520</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45527</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45534</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45541</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45544</v>
       </c>
     </row>
   </sheetData>

--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msaldarriaga\Desktop\Revision\vuelosBaratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2761A-4D4E-49E3-80E4-1810F436F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD79CB4-ED8E-488A-96B0-A34EB4D8FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Salida</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Fecha_llegada</t>
   </si>
   <si>
+    <t>MDE</t>
+  </si>
+  <si>
     <t>BOG</t>
-  </si>
-  <si>
-    <t>MDE</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,136 +411,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45478</v>
+        <v>45638</v>
       </c>
       <c r="D2" s="2">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45485</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45492</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45499</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45506</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45513</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45520</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45527</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45534</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45541</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45544</v>
+        <v>45640</v>
       </c>
     </row>
   </sheetData>
